--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CC4618-66A2-453F-9277-FE23E949FCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98DEAA0-7975-456F-8E4A-E568FC7C249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>Team name</t>
   </si>
@@ -168,15 +168,9 @@
     <t>README has project description, team members and backend usage guide</t>
   </si>
   <si>
-    <t>First five user stories have story point estimates</t>
-  </si>
-  <si>
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>Final version frontend and backend deployment</t>
-  </si>
-  <si>
     <t>README has license and test usage guide</t>
   </si>
   <si>
@@ -190,6 +184,15 @@
   </si>
   <si>
     <t>Backlog has user story 8 tasks</t>
+  </si>
+  <si>
+    <t>First four user stories have story point estimates</t>
+  </si>
+  <si>
+    <t>Frontend and backend deployment up-to-date</t>
+  </si>
+  <si>
+    <t>Tasks from previous Sprints completed</t>
   </si>
 </sst>
 </file>
@@ -716,10 +719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -804,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -815,12 +818,12 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -831,7 +834,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -842,29 +845,29 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -875,7 +878,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -886,7 +889,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -897,7 +900,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -908,18 +911,18 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -930,85 +933,85 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3">
-        <f>SUM(C3:C19)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <f>SUM(D3:D19)</f>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
+        <f>SUM(C3:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <f>SUM(D3:D21)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1019,7 +1022,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1030,7 +1033,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1041,7 +1044,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1052,7 +1055,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1063,7 +1066,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1074,7 +1077,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1085,7 +1088,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1096,29 +1099,29 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1140,7 +1143,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1151,7 +1154,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1162,7 +1165,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1173,7 +1176,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1184,7 +1187,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1195,7 +1198,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1206,7 +1209,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1217,7 +1220,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1228,7 +1231,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1239,74 +1242,74 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>14</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3">
-        <f>SUM(C24:C48)</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="3">
-        <f>SUM(D24:D48)</f>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3">
+        <f>SUM(C26:C50)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <f>SUM(D26:D50)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1317,7 +1320,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1328,7 +1331,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1339,18 +1342,18 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1361,40 +1364,40 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1405,7 +1408,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1416,7 +1419,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1427,7 +1430,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1448,14 +1451,25 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3">
-        <f>SUM(C53:C67)</f>
-        <v>0</v>
-      </c>
-      <c r="D68" s="3">
-        <f>SUM(D53:D67)</f>
+      <c r="A68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3">
+        <f>SUM(C55:C68)</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <f>SUM(D55:D68)</f>
         <v>10</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98DEAA0-7975-456F-8E4A-E568FC7C249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9E0B1F-51EF-44E0-A4C6-9CCEF8B2D00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -192,7 +192,7 @@
     <t>Frontend and backend deployment up-to-date</t>
   </si>
   <si>
-    <t>Tasks from previous Sprints completed</t>
+    <t>Entity relationship diagram and data model description</t>
   </si>
 </sst>
 </file>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1386,29 +1386,29 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1430,18 +1430,18 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1452,13 +1452,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9E0B1F-51EF-44E0-A4C6-9CCEF8B2D00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065FB758-D27F-4C4C-BC1D-1D1EFBBA5B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>Team name</t>
   </si>
@@ -192,7 +192,13 @@
     <t>Frontend and backend deployment up-to-date</t>
   </si>
   <si>
-    <t>Entity relationship diagram and data model description</t>
+    <t>Final project: all user stories implemented</t>
+  </si>
+  <si>
+    <t>Final project: working production version deployed</t>
+  </si>
+  <si>
+    <t>Final project: documentation</t>
   </si>
 </sst>
 </file>
@@ -719,10 +725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -928,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -950,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1006,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1105,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1127,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1259,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1315,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -1326,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -1337,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -1348,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1359,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -1386,29 +1392,29 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1419,7 +1425,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1430,46 +1436,68 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3">
-        <f>SUM(C55:C68)</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="3">
-        <f>SUM(D55:D68)</f>
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3">
+        <f>SUM(C55:C70)</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <f>SUM(D55:D70)</f>
         <v>10</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065FB758-D27F-4C4C-BC1D-1D1EFBBA5B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADF082B-54AB-40E8-BC35-E894C9DA4CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>Team name</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Backend deployment</t>
   </si>
   <si>
-    <t>User story 8 implemented</t>
-  </si>
-  <si>
     <t>Frontend deployment</t>
   </si>
   <si>
@@ -183,22 +180,13 @@
     <t>Backlog has user story 7 tasks</t>
   </si>
   <si>
-    <t>Backlog has user story 8 tasks</t>
-  </si>
-  <si>
     <t>First four user stories have story point estimates</t>
   </si>
   <si>
     <t>Frontend and backend deployment up-to-date</t>
   </si>
   <si>
-    <t>Final project: all user stories implemented</t>
-  </si>
-  <si>
-    <t>Final project: working production version deployed</t>
-  </si>
-  <si>
-    <t>Final project: documentation</t>
+    <t>User stories from previous Sprints implemented</t>
   </si>
 </sst>
 </file>
@@ -725,10 +713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -829,7 +817,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -846,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -862,7 +850,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -934,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1072,7 +1060,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1083,7 +1071,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1094,51 +1082,51 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1149,7 +1137,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1160,7 +1148,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1171,7 +1159,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1182,7 +1170,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1193,40 +1181,40 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1237,18 +1225,18 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1258,64 +1246,64 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0.5</v>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3">
+        <f>SUM(C26:C48)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <f>SUM(D26:D48)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3">
-        <f>SUM(C26:C50)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
-        <f>SUM(D26:D50)</f>
+      <c r="A51" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>10</v>
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0.25</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1326,7 +1314,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1337,7 +1325,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1348,35 +1336,35 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1387,23 +1375,23 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1414,7 +1402,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1425,7 +1413,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1436,13 +1424,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -1458,46 +1446,24 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3">
-        <f>SUM(C55:C70)</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="3">
-        <f>SUM(D55:D70)</f>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3">
+        <f>SUM(C53:C68)</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <f>SUM(D53:D68)</f>
         <v>10</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADF082B-54AB-40E8-BC35-E894C9DA4CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76366E43-92D5-471F-915B-A2BBF90C17E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>Team name</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>User stories from previous Sprints implemented</t>
+  </si>
+  <si>
+    <t>Frontend and backend deployment done</t>
+  </si>
+  <si>
+    <t>Documentation from previous Sprints done</t>
   </si>
 </sst>
 </file>
@@ -713,10 +719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -922,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -933,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1088,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1110,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1132,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1143,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1220,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1342,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1424,46 +1430,65 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>49</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3">
-        <f>SUM(C53:C68)</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="3">
-        <f>SUM(D53:D68)</f>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3">
+        <f>SUM(C53:C70)</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <f>SUM(D53:D70)</f>
         <v>10</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76366E43-92D5-471F-915B-A2BBF90C17E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929BEA43-C93F-4E04-B069-9ACBFBE8D981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Team name</t>
   </si>
@@ -192,7 +192,10 @@
     <t>Frontend and backend deployment done</t>
   </si>
   <si>
-    <t>Documentation from previous Sprints done</t>
+    <t>Data model documentation</t>
+  </si>
+  <si>
+    <t>All documentation done and up-to-date</t>
   </si>
 </sst>
 </file>
@@ -719,10 +722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1110,40 +1113,40 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1154,18 +1157,18 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1176,7 +1179,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1187,18 +1190,18 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1209,7 +1212,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1220,85 +1223,85 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>14</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3">
-        <f>SUM(C26:C48)</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="3">
-        <f>SUM(D26:D48)</f>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3">
+        <f>SUM(C26:C49)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <f>SUM(D26:D49)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0.25</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1309,7 +1312,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1320,7 +1323,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1331,7 +1334,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1342,7 +1345,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1353,7 +1356,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1364,29 +1367,29 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1397,7 +1400,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1408,7 +1411,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1419,7 +1422,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1430,18 +1433,18 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1452,43 +1455,54 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>49</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3">
-        <f>SUM(C53:C70)</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="3">
-        <f>SUM(D53:D70)</f>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3">
+        <f>SUM(C54:C71)</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <f>SUM(D54:D71)</f>
         <v>10</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929BEA43-C93F-4E04-B069-9ACBFBE8D981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68CFCEA-3A6A-4C53-9318-126781247EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>Team name</t>
   </si>
@@ -722,10 +722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -837,7 +837,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -859,173 +859,173 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3">
-        <f>SUM(C3:C21)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <f>SUM(D3:D21)</f>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
+        <f>SUM(C3:C23)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <f>SUM(D3:D23)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1113,29 +1113,29 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1146,40 +1146,40 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1201,29 +1201,29 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1234,29 +1234,29 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1266,64 +1266,64 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3">
-        <f>SUM(C26:C49)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="3">
-        <f>SUM(D26:D49)</f>
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3">
+        <f>SUM(C28:C51)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <f>SUM(D28:D51)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0.25</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1378,40 +1378,40 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1444,40 +1444,43 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0.5</v>
@@ -1485,24 +1488,43 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>49</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3">
-        <f>SUM(C54:C71)</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="3">
-        <f>SUM(D54:D71)</f>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3">
+        <f>SUM(C56:C73)</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <f>SUM(D56:D73)</f>
         <v>10</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68CFCEA-3A6A-4C53-9318-126781247EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BF0F35-768F-4F88-96FF-BDFCC290170F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>Team name</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>All documentation done and up-to-date</t>
+  </si>
+  <si>
+    <t>User story 8 implemented</t>
+  </si>
+  <si>
+    <t>Backlog has user story 8 tasks</t>
   </si>
 </sst>
 </file>
@@ -722,10 +728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1031,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1042,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1053,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1064,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1075,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1086,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1097,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1108,23 +1114,23 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1135,29 +1141,29 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1168,29 +1174,29 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1201,7 +1207,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1212,7 +1218,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1223,18 +1229,18 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1245,7 +1251,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1256,29 +1262,29 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1288,64 +1294,64 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3">
-        <f>SUM(C28:C51)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="3">
-        <f>SUM(D28:D51)</f>
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3">
+        <f>SUM(C28:C53)</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <f>SUM(D28:D53)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0.25</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1356,7 +1362,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1367,7 +1373,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1378,7 +1384,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1389,7 +1395,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1400,51 +1406,51 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1455,76 +1461,123 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>49</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3">
-        <f>SUM(C56:C73)</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="3">
-        <f>SUM(D56:D73)</f>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3">
+        <f>SUM(C58:C77)</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="3">
+        <f>SUM(D58:D77)</f>
         <v>10</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BF0F35-768F-4F88-96FF-BDFCC290170F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADC847E-5DBC-47F9-8259-55FCE1C1EAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>Team name</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Backlog has user story 8 tasks</t>
+  </si>
+  <si>
+    <t>Test database configuration</t>
   </si>
 </sst>
 </file>
@@ -728,10 +731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1406,7 +1409,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1417,7 +1420,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1428,24 +1431,24 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -1467,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -1478,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -1489,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -1500,23 +1503,23 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1527,57 +1530,46 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3">
-        <f>SUM(C58:C77)</f>
-        <v>0</v>
-      </c>
-      <c r="D78" s="3">
-        <f>SUM(D58:D77)</f>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3">
+        <f>SUM(C58:C76)</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="3">
+        <f>SUM(D58:D76)</f>
         <v>10</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADC847E-5DBC-47F9-8259-55FCE1C1EAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C83A434-9913-4D08-AD70-88249405E88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>Team name</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Backlog has user story 7 tasks</t>
   </si>
   <si>
-    <t>First four user stories have story point estimates</t>
-  </si>
-  <si>
     <t>Frontend and backend deployment up-to-date</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>Test database configuration</t>
+  </si>
+  <si>
+    <t>Two user stories implemented in a feature branch</t>
   </si>
 </sst>
 </file>
@@ -731,10 +731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="95" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="95" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1188,13 +1188,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1276,7 +1276,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -1442,7 +1442,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1453,18 +1453,18 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1497,29 +1497,29 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1530,46 +1530,57 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
         <v>0.75</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3">
-        <f>SUM(C58:C76)</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="3">
-        <f>SUM(D58:D76)</f>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3">
+        <f>SUM(C58:C77)</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="3">
+        <f>SUM(D58:D77)</f>
         <v>10</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C83A434-9913-4D08-AD70-88249405E88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623F92BE-21B3-4821-90B2-804F343718FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>Team name</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Two user stories implemented in a feature branch</t>
+  </si>
+  <si>
+    <t>User stories have story point estimates</t>
   </si>
 </sst>
 </file>
@@ -731,10 +734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="95" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="95" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1464,18 +1467,18 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1486,18 +1489,18 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1508,7 +1511,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1519,18 +1522,18 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1541,46 +1544,57 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>48</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
         <v>0.75</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3">
-        <f>SUM(C58:C77)</f>
-        <v>0</v>
-      </c>
-      <c r="D78" s="3">
-        <f>SUM(D58:D77)</f>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3">
+        <f>SUM(C58:C78)</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="3">
+        <f>SUM(D58:D78)</f>
         <v>10</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623F92BE-21B3-4821-90B2-804F343718FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25429034-99C0-4CC5-8206-29029A3FAD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Team name</t>
   </si>
@@ -207,7 +207,7 @@
     <t>Two user stories implemented in a feature branch</t>
   </si>
   <si>
-    <t>User stories have story point estimates</t>
+    <t>One user story implemented in a feature branch</t>
   </si>
 </sst>
 </file>
@@ -734,10 +734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1456,40 +1456,40 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1522,18 +1522,18 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1544,57 +1544,46 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3">
-        <f>SUM(C58:C78)</f>
-        <v>0</v>
-      </c>
-      <c r="D79" s="3">
-        <f>SUM(D58:D78)</f>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3">
+        <f>SUM(C58:C77)</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="3">
+        <f>SUM(D58:D77)</f>
         <v>10</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25429034-99C0-4CC5-8206-29029A3FAD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A809D31B-0C71-43ED-8BC5-7A51865A6050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>Team name</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>Two user stories implemented in a feature branch</t>
-  </si>
-  <si>
-    <t>One user story implemented in a feature branch</t>
   </si>
 </sst>
 </file>
@@ -736,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="95" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -1191,7 +1188,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>0</v>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A809D31B-0C71-43ED-8BC5-7A51865A6050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F81880-B3BE-4F33-A718-2AF94E0E98B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Team name</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Two user stories implemented in a feature branch</t>
+  </si>
+  <si>
+    <t>Git branch practice done and one user story implemented in a feature branch</t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -1188,7 +1191,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>0</v>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F81880-B3BE-4F33-A718-2AF94E0E98B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F808CC5-83A8-4CAB-A38B-76B502A6B798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -204,10 +204,10 @@
     <t>Test database configuration</t>
   </si>
   <si>
-    <t>Two user stories implemented in a feature branch</t>
-  </si>
-  <si>
     <t>Git branch practice done and one user story implemented in a feature branch</t>
+  </si>
+  <si>
+    <t>One user story implemented in a feature branch</t>
   </si>
 </sst>
 </file>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="95" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1456,13 +1456,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F808CC5-83A8-4CAB-A38B-76B502A6B798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204BA79B-B17E-4D8D-A8E8-9858795B86EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>Team name</t>
   </si>
@@ -195,19 +195,16 @@
     <t>All documentation done and up-to-date</t>
   </si>
   <si>
-    <t>User story 8 implemented</t>
-  </si>
-  <si>
-    <t>Backlog has user story 8 tasks</t>
-  </si>
-  <si>
     <t>Test database configuration</t>
   </si>
   <si>
-    <t>Git branch practice done and one user story implemented in a feature branch</t>
-  </si>
-  <si>
     <t>One user story implemented in a feature branch</t>
+  </si>
+  <si>
+    <t>Git branch practice done</t>
+  </si>
+  <si>
+    <t>Two user stories implemented in a feature branch</t>
   </si>
 </sst>
 </file>
@@ -734,10 +731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="95" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1125,40 +1122,40 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1169,7 +1166,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1180,13 +1177,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1197,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1279,7 +1276,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1290,18 +1287,18 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1311,53 +1308,53 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3">
-        <f>SUM(C28:C53)</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="3">
-        <f>SUM(D28:D53)</f>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3">
+        <f>SUM(C28:C52)</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <f>SUM(D28:D52)</f>
         <v>10</v>
       </c>
     </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>10</v>
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0.25</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1368,7 +1365,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1379,7 +1376,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1390,7 +1387,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1401,7 +1398,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1412,7 +1409,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1423,73 +1420,73 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1500,7 +1497,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1511,18 +1508,18 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1533,57 +1530,46 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3">
-        <f>SUM(C58:C77)</f>
-        <v>0</v>
-      </c>
-      <c r="D78" s="3">
-        <f>SUM(D58:D77)</f>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3">
+        <f>SUM(C57:C76)</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="3">
+        <f>SUM(D57:D76)</f>
         <v>10</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204BA79B-B17E-4D8D-A8E8-9858795B86EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5903E464-04F1-4345-8EE5-3C9C82BF4B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5903E464-04F1-4345-8EE5-3C9C82BF4B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF9A378-640C-4D22-9105-4B3DE1882FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>Team name</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>Git branch practice done</t>
-  </si>
-  <si>
-    <t>Two user stories implemented in a feature branch</t>
   </si>
 </sst>
 </file>
@@ -733,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="95" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1128,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1183,18 +1180,18 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1304,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF9A378-640C-4D22-9105-4B3DE1882FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAD8E13-E987-4924-AB03-4BEAB36F4C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>Team name</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Git branch practice done</t>
+  </si>
+  <si>
+    <t>Two user stories implemented in a feature branch</t>
   </si>
 </sst>
 </file>
@@ -730,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="95" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1180,18 +1183,18 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1301,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAD8E13-E987-4924-AB03-4BEAB36F4C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7187E46E-8E56-426D-A071-20870014CDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t>Team name</t>
   </si>
@@ -159,18 +159,9 @@
     <t>Frontend deployment</t>
   </si>
   <si>
-    <t>README has architectural overview and frontend usage guide</t>
-  </si>
-  <si>
-    <t>README has project description, team members and backend usage guide</t>
-  </si>
-  <si>
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>README has license and test usage guide</t>
-  </si>
-  <si>
     <t>REST API integration tests implemented</t>
   </si>
   <si>
@@ -204,7 +195,22 @@
     <t>Git branch practice done</t>
   </si>
   <si>
-    <t>Two user stories implemented in a feature branch</t>
+    <t>README has frontend usage guide</t>
+  </si>
+  <si>
+    <t>README has test usage guide</t>
+  </si>
+  <si>
+    <t>README has license</t>
+  </si>
+  <si>
+    <t>README has backend usage guide</t>
+  </si>
+  <si>
+    <t>README has project description, team members and backlog link</t>
+  </si>
+  <si>
+    <t>README has architectural overview</t>
   </si>
 </sst>
 </file>
@@ -731,10 +737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -835,7 +841,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -846,7 +852,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -879,29 +885,29 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -912,7 +918,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -923,7 +929,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -934,7 +940,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -945,7 +951,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -956,7 +962,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -967,85 +973,85 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3">
-        <f>SUM(C3:C23)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <f>SUM(D3:D23)</f>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <f>SUM(C3:C24)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <f>SUM(D3:D24)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1056,7 +1062,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1067,7 +1073,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1078,7 +1084,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1089,7 +1095,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1100,7 +1106,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1111,7 +1117,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1122,7 +1128,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1133,29 +1139,29 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1166,7 +1172,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1177,29 +1183,29 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1210,7 +1216,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1221,7 +1227,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1232,7 +1238,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1243,29 +1249,29 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1276,96 +1282,96 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>14</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3">
-        <f>SUM(C28:C52)</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="3">
-        <f>SUM(D28:D52)</f>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3">
+        <f>SUM(C29:C54)</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <f>SUM(D29:D54)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0.25</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1376,7 +1382,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1387,7 +1393,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1398,7 +1404,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1409,7 +1415,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1420,18 +1426,18 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1448,56 +1454,56 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1508,68 +1514,101 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>48</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3">
-        <f>SUM(C57:C76)</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="3">
-        <f>SUM(D57:D76)</f>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3">
+        <f>SUM(C59:C79)</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="3">
+        <f>SUM(D59:D79)</f>
         <v>10</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7187E46E-8E56-426D-A071-20870014CDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDE1EB9-F541-4081-8863-53D9168D3A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>Team name</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>README has architectural overview</t>
+  </si>
+  <si>
+    <t>Two user stories implemented in a feature branch</t>
   </si>
 </sst>
 </file>
@@ -739,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="95" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1145,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1200,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1211,18 +1214,18 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1332,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDE1EB9-F541-4081-8863-53D9168D3A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87A3CCC-6286-4ABF-97EC-0465ADCBDBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>Team name</t>
   </si>
@@ -213,7 +213,16 @@
     <t>README has architectural overview</t>
   </si>
   <si>
-    <t>Two user stories implemented in a feature branch</t>
+    <t>REST API for all quizzes</t>
+  </si>
+  <si>
+    <t>REST API for quiz by id</t>
+  </si>
+  <si>
+    <t>REST API for questions of a quiz</t>
+  </si>
+  <si>
+    <t>REST API for create question answer</t>
   </si>
 </sst>
 </file>
@@ -740,10 +749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="95" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1203,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1214,18 +1223,18 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1274,151 +1283,151 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>14</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3">
-        <f>SUM(C29:C54)</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="3">
-        <f>SUM(D29:D54)</f>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3">
+        <f>SUM(C29:C58)</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <f>SUM(D29:D58)</f>
+        <v>10.000000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0.25</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1429,7 +1438,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1440,7 +1449,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1451,7 +1460,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1462,7 +1471,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1473,7 +1482,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1484,106 +1493,106 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1594,24 +1603,68 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>45</v>
       </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3">
-        <f>SUM(C59:C79)</f>
-        <v>0</v>
-      </c>
-      <c r="D80" s="3">
-        <f>SUM(D59:D79)</f>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3">
+        <f>SUM(C63:C83)</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="3">
+        <f>SUM(D63:D83)</f>
         <v>10</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87A3CCC-6286-4ABF-97EC-0465ADCBDBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7020C888-C2EF-4721-ABD2-4B79FD589E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>Team name</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>REST API for create question answer</t>
+  </si>
+  <si>
+    <t>Two user stories implemented in a feature branch</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="95" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1223,18 +1226,18 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7020C888-C2EF-4721-ABD2-4B79FD589E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258336BC-5B8C-4F4B-9A04-784AD01BFA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>Team name</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>REST API for create question answer</t>
-  </si>
-  <si>
-    <t>Two user stories implemented in a feature branch</t>
   </si>
 </sst>
 </file>
@@ -754,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="95" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
@@ -1226,18 +1223,18 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258336BC-5B8C-4F4B-9A04-784AD01BFA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFA00AB-CE84-4371-8F1A-1D0B386E23FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFA00AB-CE84-4371-8F1A-1D0B386E23FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6395C989-FCF5-4426-8B0E-7266829AD4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -195,18 +195,12 @@
     <t>Git branch practice done</t>
   </si>
   <si>
-    <t>README has frontend usage guide</t>
-  </si>
-  <si>
     <t>README has test usage guide</t>
   </si>
   <si>
     <t>README has license</t>
   </si>
   <si>
-    <t>README has backend usage guide</t>
-  </si>
-  <si>
     <t>README has project description, team members and backlog link</t>
   </si>
   <si>
@@ -223,6 +217,12 @@
   </si>
   <si>
     <t>REST API for create question answer</t>
+  </si>
+  <si>
+    <t>README has backend developer guide</t>
+  </si>
+  <si>
+    <t>README has frontend developer guide</t>
   </si>
 </sst>
 </file>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -897,7 +897,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71">
         <v>0</v>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6395C989-FCF5-4426-8B0E-7266829AD4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCF2ACF-6F3C-482B-BDF3-4BACCCBF0BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -189,24 +189,15 @@
     <t>Test database configuration</t>
   </si>
   <si>
-    <t>One user story implemented in a feature branch</t>
-  </si>
-  <si>
     <t>Git branch practice done</t>
   </si>
   <si>
-    <t>README has test usage guide</t>
-  </si>
-  <si>
     <t>README has license</t>
   </si>
   <si>
     <t>README has project description, team members and backlog link</t>
   </si>
   <si>
-    <t>README has architectural overview</t>
-  </si>
-  <si>
     <t>REST API for all quizzes</t>
   </si>
   <si>
@@ -223,6 +214,15 @@
   </si>
   <si>
     <t>README has frontend developer guide</t>
+  </si>
+  <si>
+    <t>Architecture documentation done</t>
+  </si>
+  <si>
+    <t>Two user stories implemented in a feature branch</t>
+  </si>
+  <si>
+    <t>README has test developer guide</t>
   </si>
 </sst>
 </file>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="95" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="95" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -897,7 +897,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1217,24 +1217,24 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1283,7 +1283,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -1504,7 +1504,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCF2ACF-6F3C-482B-BDF3-4BACCCBF0BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A0F3DF-0E57-4FE3-8884-5CCC1528A018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>Team name</t>
   </si>
@@ -223,6 +223,21 @@
   </si>
   <si>
     <t>README has test developer guide</t>
+  </si>
+  <si>
+    <t>User story 8 implemented</t>
+  </si>
+  <si>
+    <t>Backlog has user story 8 tasks</t>
+  </si>
+  <si>
+    <t>REST API for all categories</t>
+  </si>
+  <si>
+    <t>User story 9 implemented</t>
+  </si>
+  <si>
+    <t>Backlog has user story 9 tasks</t>
   </si>
 </sst>
 </file>
@@ -749,10 +764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="95" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -804,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -815,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -826,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -837,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -848,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -859,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -870,23 +885,23 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -897,40 +912,40 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -941,7 +956,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -952,7 +967,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -963,7 +978,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -974,349 +989,349 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3">
-        <f>SUM(C3:C24)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <f>SUM(D3:D24)</f>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3">
+        <f>SUM(C3:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <f>SUM(D3:D26)</f>
+        <v>10.000000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1338,40 +1353,40 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1382,63 +1397,73 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3">
-        <f>SUM(C29:C58)</f>
-        <v>0</v>
-      </c>
-      <c r="D59" s="3">
-        <f>SUM(D29:D58)</f>
-        <v>10.000000000000002</v>
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0.4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>10</v>
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0.3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1449,7 +1474,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1459,213 +1484,302 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0.25</v>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3">
+        <f>SUM(C31:C65)</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <f>SUM(D31:D65)</f>
+        <v>10.000000000000004</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0.25</v>
-      </c>
+      <c r="A68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0.25</v>
+      <c r="A69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>45</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
         <v>0.75</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3">
-        <f>SUM(C63:C83)</f>
-        <v>0</v>
-      </c>
-      <c r="D84" s="3">
-        <f>SUM(D63:D83)</f>
-        <v>10</v>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3">
+        <f>SUM(C70:C92)</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="3">
+        <f>SUM(D70:D92)</f>
+        <v>9.9999999999999982</v>
       </c>
     </row>
   </sheetData>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A0F3DF-0E57-4FE3-8884-5CCC1528A018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58DBD13-3BC5-4A0E-B5E7-17DCBE45AEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
   <si>
     <t>Team name</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>Backlog has user story 9 tasks</t>
+  </si>
+  <si>
+    <t>Backlog has user story 10 tasks</t>
+  </si>
+  <si>
+    <t>User story 10 implemented</t>
+  </si>
+  <si>
+    <t>REST API for answers of a quiz</t>
   </si>
 </sst>
 </file>
@@ -764,10 +773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="95" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="95" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -808,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -940,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -951,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -962,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -973,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -984,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -995,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1006,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1017,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1028,123 +1037,123 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3">
-        <f>SUM(C3:C26)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <f>SUM(D3:D26)</f>
-        <v>10.000000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3">
+        <f>SUM(C3:C29)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <f>SUM(D3:D29)</f>
+        <v>9.9999999999999947</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0.15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1155,7 +1164,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1166,7 +1175,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1177,7 +1186,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1188,7 +1197,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1199,7 +1208,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1210,106 +1219,106 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1320,7 +1329,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1331,7 +1340,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1342,7 +1351,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1353,173 +1362,183 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3">
-        <f>SUM(C31:C65)</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="3">
-        <f>SUM(D31:D65)</f>
-        <v>10.000000000000004</v>
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0.3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>10</v>
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0.2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1529,52 +1548,42 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0.2</v>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3">
+        <f>SUM(C34:C70)</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <f>SUM(D34:D70)</f>
+        <v>10.000000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0.2</v>
-      </c>
+      <c r="A73" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0.2</v>
+      <c r="A74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1585,117 +1594,117 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1706,79 +1715,134 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>45</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
         <v>0.75</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3">
-        <f>SUM(C70:C92)</f>
-        <v>0</v>
-      </c>
-      <c r="D93" s="3">
-        <f>SUM(D70:D92)</f>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3">
+        <f>SUM(C75:C97)</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="3">
+        <f>SUM(D75:D97)</f>
         <v>9.9999999999999982</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58DBD13-3BC5-4A0E-B5E7-17DCBE45AEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4DCB4D-B821-4E5C-9449-B1FCC9A12C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
   <si>
     <t>Team name</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>REST API for answers of a quiz</t>
+  </si>
+  <si>
+    <t>Production branch and automatic deployment</t>
   </si>
 </sst>
 </file>
@@ -773,10 +776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="95" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="95" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -817,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -916,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -938,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -949,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1086,85 +1089,85 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3">
-        <f>SUM(C3:C29)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <f>SUM(D3:D29)</f>
-        <v>9.9999999999999947</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
+        <f>SUM(C3:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <f>SUM(D3:D30)</f>
+        <v>9.9999999999999964</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1175,7 +1178,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1186,7 +1189,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1197,7 +1200,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1208,7 +1211,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1219,7 +1222,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1230,7 +1233,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1241,7 +1244,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1252,7 +1255,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1263,7 +1266,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1274,7 +1277,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1285,18 +1288,18 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1307,29 +1310,29 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1340,7 +1343,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1351,7 +1354,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1362,7 +1365,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1373,7 +1376,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1384,7 +1387,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1395,84 +1398,84 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1483,7 +1486,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1494,18 +1497,18 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1516,85 +1519,85 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>14</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3">
-        <f>SUM(C34:C70)</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="3">
-        <f>SUM(D34:D70)</f>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3">
+        <f>SUM(C35:C71)</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <f>SUM(D35:D71)</f>
         <v>10.000000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0.2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1605,7 +1608,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1616,7 +1619,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1627,7 +1630,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1638,7 +1641,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1649,18 +1652,18 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1671,7 +1674,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1682,7 +1685,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1704,40 +1707,40 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1748,7 +1751,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1759,7 +1762,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1770,7 +1773,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1781,7 +1784,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1792,7 +1795,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1803,29 +1806,29 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1835,14 +1838,25 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3">
-        <f>SUM(C75:C97)</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="3">
-        <f>SUM(D75:D97)</f>
+      <c r="A98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3">
+        <f>SUM(C76:C98)</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="3">
+        <f>SUM(D76:D98)</f>
         <v>9.9999999999999982</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4DCB4D-B821-4E5C-9449-B1FCC9A12C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2077804-6E5C-4A63-92AD-03BBFA0A7EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>Team name</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>Production branch and automatic deployment</t>
+  </si>
+  <si>
+    <t>Backlog has user story 11 tasks</t>
+  </si>
+  <si>
+    <t>User story 11 implemented</t>
   </si>
 </sst>
 </file>
@@ -776,10 +782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="95" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -913,7 +919,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -924,7 +930,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -935,272 +941,273 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <f>+D12</f>
+        <v>0.2</v>
       </c>
       <c r="D27">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3">
-        <f>SUM(C3:C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <f>SUM(D3:D30)</f>
-        <v>9.9999999999999964</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3">
+        <f>SUM(C3:C33)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D34" s="3">
+        <f>SUM(D3:D33)</f>
+        <v>9.9999999999999982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0.15</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1211,7 +1218,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1222,7 +1229,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1233,7 +1240,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1244,7 +1251,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1255,7 +1262,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1266,7 +1273,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1277,7 +1284,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1288,7 +1295,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1299,84 +1306,84 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1387,84 +1394,84 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1475,62 +1482,62 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1541,63 +1548,73 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3">
-        <f>SUM(C35:C71)</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="3">
-        <f>SUM(D35:D71)</f>
-        <v>10.000000000000002</v>
+      <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0.3</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>10</v>
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0.2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1607,52 +1624,42 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0.2</v>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3">
+        <f>SUM(C38:C76)</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="3">
+        <f>SUM(D38:D76)</f>
+        <v>9.9999999999999982</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0.2</v>
-      </c>
+      <c r="A79" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0.2</v>
+      <c r="A80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1663,117 +1670,117 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1784,18 +1791,18 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1806,7 +1813,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1817,46 +1824,101 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>45</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
         <v>0.75</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3">
-        <f>SUM(C76:C98)</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="3">
-        <f>SUM(D76:D98)</f>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3">
+        <f>SUM(C81:C103)</f>
+        <v>0</v>
+      </c>
+      <c r="D104" s="3">
+        <f>SUM(D81:D103)</f>
         <v>9.9999999999999982</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2077804-6E5C-4A63-92AD-03BBFA0A7EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6029A29F-3FE5-4A22-A3D8-4C78697586A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
   <si>
     <t>Team name</t>
   </si>
@@ -782,10 +782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="95" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="95" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -936,45 +936,45 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -985,18 +985,18 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1084,11 +1084,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27">
-        <f>+D12</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0.5</v>
@@ -1096,140 +1095,140 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>14</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3">
-        <f>SUM(C3:C33)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D34" s="3">
-        <f>SUM(D3:D33)</f>
-        <v>9.9999999999999982</v>
-      </c>
-    </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3">
+        <f>SUM(C3:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <f>SUM(D3:D35)</f>
+        <v>9.9999999999999964</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1240,7 +1239,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1251,7 +1250,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1262,7 +1261,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1273,7 +1272,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1284,7 +1283,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1295,7 +1294,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1306,7 +1305,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1317,7 +1316,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1328,7 +1327,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1339,7 +1338,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1350,51 +1349,51 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1405,18 +1404,18 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1427,7 +1426,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1438,7 +1437,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1449,7 +1448,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1460,29 +1459,29 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1493,7 +1492,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1504,18 +1503,18 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1526,29 +1525,29 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1559,18 +1558,18 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1581,7 +1580,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1592,96 +1591,96 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>14</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
         <v>0.2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3">
-        <f>SUM(C38:C76)</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="3">
-        <f>SUM(D38:D76)</f>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3">
+        <f>SUM(C40:C78)</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="3">
+        <f>SUM(D40:D78)</f>
         <v>9.9999999999999982</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0.2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1692,7 +1691,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1703,7 +1702,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1714,7 +1713,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1725,95 +1724,95 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1824,18 +1823,18 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1846,7 +1845,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1857,7 +1856,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1868,7 +1867,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1879,47 +1878,91 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>45</v>
       </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3">
-        <f>SUM(C81:C103)</f>
-        <v>0</v>
-      </c>
-      <c r="D104" s="3">
-        <f>SUM(D81:D103)</f>
-        <v>9.9999999999999982</v>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3">
+        <f>SUM(C83:C107)</f>
+        <v>0</v>
+      </c>
+      <c r="D108" s="3">
+        <f>SUM(D83:D107)</f>
+        <v>9.9999999999999964</v>
       </c>
     </row>
   </sheetData>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6029A29F-3FE5-4A22-A3D8-4C78697586A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F69F42-08E6-482E-B7F7-956034769578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Grading" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
   <si>
     <t>Team name</t>
   </si>
@@ -48,15 +48,6 @@
     <t>Exercise points</t>
   </si>
   <si>
-    <t>Sprint 1 points</t>
-  </si>
-  <si>
-    <t>Sprint 2 points</t>
-  </si>
-  <si>
-    <t>Sprint 3 points</t>
-  </si>
-  <si>
     <t>Personal points</t>
   </si>
   <si>
@@ -111,12 +102,6 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Group 1</t>
-  </si>
-  <si>
     <t>https://github.com/</t>
   </si>
   <si>
@@ -256,13 +241,106 @@
   </si>
   <si>
     <t>User story 11 implemented</t>
+  </si>
+  <si>
+    <t>Alisa Dunaeva</t>
+  </si>
+  <si>
+    <t>Emilio Lehto</t>
+  </si>
+  <si>
+    <t>Vili Konttinen</t>
+  </si>
+  <si>
+    <t>Roda Henein</t>
+  </si>
+  <si>
+    <t>Toan Nguyen</t>
+  </si>
+  <si>
+    <t>Project points</t>
+  </si>
+  <si>
+    <t>Ajayi Temitope</t>
+  </si>
+  <si>
+    <t>Hardik Savsani</t>
+  </si>
+  <si>
+    <t>Yen Nguyen</t>
+  </si>
+  <si>
+    <t>Emad Yazdankhah</t>
+  </si>
+  <si>
+    <t>Mbishibishi Leon</t>
+  </si>
+  <si>
+    <t>Shiyang Chen</t>
+  </si>
+  <si>
+    <t>Team 1</t>
+  </si>
+  <si>
+    <t>Team 2</t>
+  </si>
+  <si>
+    <t>Eetu Takaeilola</t>
+  </si>
+  <si>
+    <t>Hilja Katajamäki</t>
+  </si>
+  <si>
+    <t>Ikechukwu Aniebonam</t>
+  </si>
+  <si>
+    <t>Kosti Kangasmaa</t>
+  </si>
+  <si>
+    <t>Vilho Karhu</t>
+  </si>
+  <si>
+    <t>Tiimi 1</t>
+  </si>
+  <si>
+    <t>Tiimi 2</t>
+  </si>
+  <si>
+    <t>Tiimi 3</t>
+  </si>
+  <si>
+    <t>Juuso Karjanlahti</t>
+  </si>
+  <si>
+    <t>Jukka Virolainen</t>
+  </si>
+  <si>
+    <t>Heli Kulomaa</t>
+  </si>
+  <si>
+    <t>Kaito Stenroos</t>
+  </si>
+  <si>
+    <t>Jehu Enberg</t>
+  </si>
+  <si>
+    <t>Veera Virtanen</t>
+  </si>
+  <si>
+    <t>Kasper Snellman</t>
+  </si>
+  <si>
+    <t>Renne Jämsen</t>
+  </si>
+  <si>
+    <t>Niko Pekkanen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +352,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,9 +434,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -390,7 +474,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -496,7 +580,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -638,7 +722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -646,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD00F18-EB42-44D3-A3B4-748FE1A722BA}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -657,16 +741,13 @@
     <col min="1" max="1" width="31.81640625" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
-    <col min="9" max="9" width="19.6328125" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="4" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -674,104 +755,263 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <f>SUM(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <f>SUM(E2:H2)</f>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
       <c r="C13" s="2"/>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A5C90110-F4BC-4F64-9F0A-E873ED61F7D6}"/>
   </hyperlinks>
@@ -784,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="95" workbookViewId="0">
+    <sheetView zoomScale="95" workbookViewId="0">
       <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
@@ -798,7 +1038,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -806,21 +1046,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -831,7 +1071,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -842,7 +1082,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -853,7 +1093,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -864,7 +1104,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -875,7 +1115,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -886,7 +1126,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -897,7 +1137,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -908,7 +1148,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -919,7 +1159,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -930,7 +1170,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -941,7 +1181,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -952,7 +1192,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -963,7 +1203,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -974,7 +1214,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -985,7 +1225,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -996,7 +1236,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1007,7 +1247,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1018,7 +1258,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1029,7 +1269,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1040,7 +1280,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1051,7 +1291,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1062,7 +1302,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1073,7 +1313,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1084,7 +1324,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1095,7 +1335,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1106,7 +1346,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1117,7 +1357,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1128,7 +1368,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1139,7 +1379,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1150,7 +1390,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1161,7 +1401,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1172,7 +1412,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1195,7 +1435,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1203,21 +1443,21 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1228,7 +1468,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1239,7 +1479,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1250,7 +1490,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1261,7 +1501,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1272,7 +1512,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1283,7 +1523,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1294,7 +1534,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1305,7 +1545,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1316,7 +1556,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1327,7 +1567,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1338,7 +1578,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1349,7 +1589,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1360,7 +1600,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1371,7 +1611,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1382,7 +1622,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1393,7 +1633,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1404,7 +1644,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1415,7 +1655,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1426,7 +1666,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1437,7 +1677,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1448,7 +1688,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1459,7 +1699,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1470,7 +1710,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1481,7 +1721,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1492,7 +1732,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1503,7 +1743,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1514,7 +1754,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1525,7 +1765,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1536,7 +1776,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1547,7 +1787,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1558,7 +1798,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1569,7 +1809,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1580,7 +1820,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1591,7 +1831,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1602,7 +1842,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1613,7 +1853,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1624,7 +1864,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1635,7 +1875,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1658,7 +1898,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -1666,21 +1906,21 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1691,7 +1931,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1702,7 +1942,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1713,7 +1953,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1724,7 +1964,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1735,7 +1975,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1746,7 +1986,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1757,7 +1997,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1768,7 +2008,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1779,7 +2019,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1790,7 +2030,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1801,7 +2041,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1812,7 +2052,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -1823,7 +2063,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -1834,7 +2074,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1845,7 +2085,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1856,7 +2096,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1867,7 +2107,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1878,7 +2118,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -1889,7 +2129,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -1900,7 +2140,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -1911,7 +2151,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -1922,7 +2162,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -1933,7 +2173,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -1944,7 +2184,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C107">
         <v>0</v>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F69F42-08E6-482E-B7F7-956034769578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027BE6E9-0197-4BFB-A154-6C4DEE8CE8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="103">
   <si>
     <t>Team name</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>https://github.com/</t>
-  </si>
-  <si>
     <t>Peer review average</t>
   </si>
   <si>
@@ -279,12 +276,6 @@
     <t>Shiyang Chen</t>
   </si>
   <si>
-    <t>Team 1</t>
-  </si>
-  <si>
-    <t>Team 2</t>
-  </si>
-  <si>
     <t>Eetu Takaeilola</t>
   </si>
   <si>
@@ -300,15 +291,6 @@
     <t>Vilho Karhu</t>
   </si>
   <si>
-    <t>Tiimi 1</t>
-  </si>
-  <si>
-    <t>Tiimi 2</t>
-  </si>
-  <si>
-    <t>Tiimi 3</t>
-  </si>
-  <si>
     <t>Juuso Karjanlahti</t>
   </si>
   <si>
@@ -334,6 +316,36 @@
   </si>
   <si>
     <t>Niko Pekkanen</t>
+  </si>
+  <si>
+    <t>!NULL</t>
+  </si>
+  <si>
+    <t>https://github.com/NULL-Haaga-Helia/Quiz_Project</t>
+  </si>
+  <si>
+    <t>Unicorn</t>
+  </si>
+  <si>
+    <t>https://github.com/unicornteam2024/quizzer</t>
+  </si>
+  <si>
+    <t>https://github.com/Team-417-Expectation-Failed/QuizzerApp</t>
+  </si>
+  <si>
+    <t>417_Expectation_Failed</t>
+  </si>
+  <si>
+    <t>FrontBackStart</t>
+  </si>
+  <si>
+    <t>https://github.com/FrontBackStart/quizzer</t>
+  </si>
+  <si>
+    <t>https://github.com/eetutakaeilola365/query-software</t>
+  </si>
+  <si>
+    <t>pepperpot</t>
   </si>
 </sst>
 </file>
@@ -408,12 +420,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -732,15 +743,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD00F18-EB42-44D3-A3B4-748FE1A722BA}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.81640625" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="57.6328125" customWidth="1"/>
     <col min="4" max="5" width="17.1796875" customWidth="1"/>
     <col min="6" max="6" width="14.26953125" customWidth="1"/>
     <col min="7" max="7" width="19.6328125" customWidth="1"/>
@@ -761,13 +772,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -778,13 +789,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -796,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>SUM(E2:F2)</f>
@@ -808,215 +819,738 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H26" si="0">SUM(E3:F3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="G12" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>85</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>90</v>
       </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>91</v>
       </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>92</v>
       </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>98</v>
-      </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>99</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A5C90110-F4BC-4F64-9F0A-E873ED61F7D6}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{5B002B67-CCE5-4B4E-9028-41E945D0F56F}"/>
+    <hyperlink ref="C8:C12" r:id="rId2" display="https://github.com/unicornteam2024/quizzer" xr:uid="{9B7FBCDF-2AB2-43BE-8738-48634A63E549}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{B89CE3F1-5499-4BC0-AA84-1313AA701FBC}"/>
+    <hyperlink ref="C19:C22" r:id="rId4" display="https://github.com/Team-417-Expectation-Failed/QuizzerApp" xr:uid="{A55E4D37-03E7-4D7E-8E5C-D1FF19E3196B}"/>
+    <hyperlink ref="C23" r:id="rId5" xr:uid="{5BEB5934-A9A7-4A8B-ABC3-4344A802FF12}"/>
+    <hyperlink ref="C24:C26" r:id="rId6" display="https://github.com/FrontBackStart/quizzer" xr:uid="{5940828F-49EA-4C7C-81BA-6B81836AD154}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{0120EB13-668F-43E3-BFCE-0CB549733F59}"/>
+    <hyperlink ref="C14:C17" r:id="rId8" display="https://github.com/eetutakaeilola365/query-software" xr:uid="{0B85DFD3-386E-41ED-A70F-B72415E2D2E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1037,12 +1571,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1060,7 +1594,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1071,7 +1605,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1082,7 +1616,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1093,7 +1627,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1104,7 +1638,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1115,7 +1649,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1126,7 +1660,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1137,7 +1671,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1148,7 +1682,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1159,7 +1693,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1170,7 +1704,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1181,7 +1715,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1192,7 +1726,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1203,7 +1737,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1214,7 +1748,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1225,7 +1759,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1291,7 +1825,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1302,7 +1836,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1313,7 +1847,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1324,7 +1858,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1335,7 +1869,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1346,7 +1880,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1357,7 +1891,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1368,7 +1902,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1379,7 +1913,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1390,7 +1924,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1434,12 +1968,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
@@ -1457,7 +1991,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1468,7 +2002,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1479,7 +2013,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1490,7 +2024,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1501,7 +2035,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1512,7 +2046,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1523,7 +2057,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1534,7 +2068,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1545,7 +2079,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1556,7 +2090,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1567,7 +2101,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1578,7 +2112,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1589,7 +2123,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1600,7 +2134,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1611,7 +2145,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1633,7 +2167,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1644,7 +2178,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1655,7 +2189,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1721,7 +2255,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1732,7 +2266,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1743,7 +2277,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1754,7 +2288,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1765,7 +2299,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1776,7 +2310,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1787,7 +2321,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1798,7 +2332,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1809,7 +2343,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1820,7 +2354,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1831,7 +2365,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1842,7 +2376,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1853,7 +2387,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1897,12 +2431,12 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
+      <c r="A81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
@@ -1920,7 +2454,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1931,7 +2465,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1942,7 +2476,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1953,7 +2487,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1964,7 +2498,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1975,7 +2509,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1986,7 +2520,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1997,7 +2531,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2008,7 +2542,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2019,7 +2553,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2030,7 +2564,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2041,7 +2575,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2052,7 +2586,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2063,7 +2597,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2129,7 +2663,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2140,7 +2674,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2151,7 +2685,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2173,7 +2707,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2184,7 +2718,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C107">
         <v>0</v>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027BE6E9-0197-4BFB-A154-6C4DEE8CE8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C762F1-B085-447A-9D50-647A1F3CC3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -744,7 +744,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C762F1-B085-447A-9D50-647A1F3CC3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBB78B9-D2B4-422C-A324-1754825D81FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>Team name</t>
   </si>
@@ -69,177 +69,18 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>GitHub release</t>
-  </si>
-  <si>
-    <t>Sprint Review</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>User story 1 implemented</t>
-  </si>
-  <si>
-    <t>User story 2 implemented</t>
-  </si>
-  <si>
-    <t>User story 3 implemented</t>
-  </si>
-  <si>
-    <t>User story 4 implemented</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>User story 5 implemented</t>
-  </si>
-  <si>
-    <t>Swagger API documentation</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
     <t>Peer review average</t>
   </si>
   <si>
-    <t>Backlog has user story 1 tasks</t>
-  </si>
-  <si>
-    <t>Backlog has user story 2 tasks</t>
-  </si>
-  <si>
-    <t>Backlog has user story 3 tasks</t>
-  </si>
-  <si>
-    <t>Backlog has user story 4 tasks</t>
-  </si>
-  <si>
-    <t>Backlog has user story 5 tasks</t>
-  </si>
-  <si>
-    <t>Tasks have assignees</t>
-  </si>
-  <si>
-    <t>Backlog is up-to-date</t>
-  </si>
-  <si>
-    <t>Backlog has all user stories</t>
-  </si>
-  <si>
-    <t>User story 6 implemented</t>
-  </si>
-  <si>
-    <t>User story 7 implemented</t>
-  </si>
-  <si>
     <t>Backend deployment</t>
   </si>
   <si>
     <t>Frontend deployment</t>
   </si>
   <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>REST API integration tests implemented</t>
-  </si>
-  <si>
-    <t>Backlog has user story 6 tasks</t>
-  </si>
-  <si>
-    <t>Backlog has user story 7 tasks</t>
-  </si>
-  <si>
-    <t>Frontend and backend deployment up-to-date</t>
-  </si>
-  <si>
-    <t>User stories from previous Sprints implemented</t>
-  </si>
-  <si>
-    <t>Frontend and backend deployment done</t>
-  </si>
-  <si>
-    <t>Data model documentation</t>
-  </si>
-  <si>
-    <t>All documentation done and up-to-date</t>
-  </si>
-  <si>
-    <t>Test database configuration</t>
-  </si>
-  <si>
-    <t>Git branch practice done</t>
-  </si>
-  <si>
-    <t>README has license</t>
-  </si>
-  <si>
-    <t>README has project description, team members and backlog link</t>
-  </si>
-  <si>
-    <t>REST API for all quizzes</t>
-  </si>
-  <si>
-    <t>REST API for quiz by id</t>
-  </si>
-  <si>
-    <t>REST API for questions of a quiz</t>
-  </si>
-  <si>
-    <t>REST API for create question answer</t>
-  </si>
-  <si>
-    <t>README has backend developer guide</t>
-  </si>
-  <si>
-    <t>README has frontend developer guide</t>
-  </si>
-  <si>
-    <t>Architecture documentation done</t>
-  </si>
-  <si>
-    <t>Two user stories implemented in a feature branch</t>
-  </si>
-  <si>
-    <t>README has test developer guide</t>
-  </si>
-  <si>
-    <t>User story 8 implemented</t>
-  </si>
-  <si>
-    <t>Backlog has user story 8 tasks</t>
-  </si>
-  <si>
-    <t>REST API for all categories</t>
-  </si>
-  <si>
-    <t>User story 9 implemented</t>
-  </si>
-  <si>
-    <t>Backlog has user story 9 tasks</t>
-  </si>
-  <si>
-    <t>Backlog has user story 10 tasks</t>
-  </si>
-  <si>
-    <t>User story 10 implemented</t>
-  </si>
-  <si>
-    <t>REST API for answers of a quiz</t>
-  </si>
-  <si>
-    <t>Production branch and automatic deployment</t>
-  </si>
-  <si>
-    <t>Backlog has user story 11 tasks</t>
-  </si>
-  <si>
-    <t>User story 11 implemented</t>
-  </si>
-  <si>
     <t>Alisa Dunaeva</t>
   </si>
   <si>
@@ -346,6 +187,51 @@
   </si>
   <si>
     <t>pepperpot</t>
+  </si>
+  <si>
+    <t>Project assesment</t>
+  </si>
+  <si>
+    <t>Backlog has user stories</t>
+  </si>
+  <si>
+    <t>Backlog has tasks</t>
+  </si>
+  <si>
+    <t>Backlog items have assignees and other relevant information</t>
+  </si>
+  <si>
+    <t>Backlog is kept up-to-date</t>
+  </si>
+  <si>
+    <t>Documentation has project description</t>
+  </si>
+  <si>
+    <t>Documentation has developer guide</t>
+  </si>
+  <si>
+    <t>Documentation has data model</t>
+  </si>
+  <si>
+    <t>Documentation has architecture description</t>
+  </si>
+  <si>
+    <t>Documentation has relevant links</t>
+  </si>
+  <si>
+    <t>Documentation has Swagger documentation</t>
+  </si>
+  <si>
+    <t>User stories implemented</t>
+  </si>
+  <si>
+    <t>Code quality</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Schedule followed</t>
   </si>
 </sst>
 </file>
@@ -743,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD00F18-EB42-44D3-A3B4-748FE1A722BA}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,30 +658,30 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -819,13 +705,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -849,13 +735,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -879,13 +765,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -909,13 +795,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -939,13 +825,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -969,13 +855,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -999,13 +885,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1029,13 +915,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1059,13 +945,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1089,13 +975,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1119,13 +1005,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1149,13 +1035,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1179,13 +1065,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1209,13 +1095,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1239,13 +1125,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1269,13 +1155,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1299,13 +1185,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1329,13 +1215,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1359,13 +1245,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1389,13 +1275,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1419,13 +1305,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1449,13 +1335,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1479,13 +1365,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1509,13 +1395,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1556,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1572,7 +1458,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1594,1149 +1480,190 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3">
-        <f>SUM(C3:C35)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <f>SUM(D3:D35)</f>
-        <v>9.9999999999999964</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>47</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3">
-        <f>SUM(C40:C78)</f>
-        <v>0</v>
-      </c>
-      <c r="D79" s="3">
-        <f>SUM(D40:D78)</f>
-        <v>9.9999999999999982</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>36</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>27</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>28</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>55</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>43</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>54</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>35</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>14</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>30</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <f>SUM(C3:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(D3:D18)</f>
         <v>40</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>38</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>42</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>39</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3">
-        <f>SUM(C83:C107)</f>
-        <v>0</v>
-      </c>
-      <c r="D108" s="3">
-        <f>SUM(D83:D107)</f>
-        <v>9.9999999999999964</v>
       </c>
     </row>
   </sheetData>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBB78B9-D2B4-422C-A324-1754825D81FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEC52B9-F0FF-4BCB-90A0-1DC56692F8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Grading" sheetId="1" r:id="rId1"/>
-    <sheet name="Group 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Students" sheetId="1" r:id="rId1"/>
+    <sheet name="Project assesment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>Team name</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Student name</t>
   </si>
   <si>
-    <t>Exercise points</t>
-  </si>
-  <si>
     <t>Personal points</t>
   </si>
   <si>
@@ -232,6 +229,18 @@
   </si>
   <si>
     <t>Schedule followed</t>
+  </si>
+  <si>
+    <t>GitHub releases</t>
+  </si>
+  <si>
+    <t>Week 1 points</t>
+  </si>
+  <si>
+    <t>Week 2 points</t>
+  </si>
+  <si>
+    <t>Total exercise points</t>
   </si>
 </sst>
 </file>
@@ -627,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD00F18-EB42-44D3-A3B4-748FE1A722BA}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -638,13 +647,16 @@
     <col min="1" max="1" width="31.81640625" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" customWidth="1"/>
     <col min="3" max="3" width="57.6328125" customWidth="1"/>
-    <col min="4" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="19.6328125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -652,774 +664,830 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>SUM(G2:H2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J26" si="0">SUM(G3:H3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>SUM(E2:F2)</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H26" si="0">SUM(E3:F3)</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14">
+        <v>29</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15">
+        <v>29</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23">
+        <v>29</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25">
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
       <c r="F26">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>0</v>
       </c>
     </row>
@@ -1442,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1458,7 +1526,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1466,32 +1534,32 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1502,7 +1570,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1513,7 +1581,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1524,7 +1592,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1535,7 +1603,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1546,7 +1614,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1557,7 +1625,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1568,7 +1636,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1579,7 +1647,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1590,7 +1658,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1601,7 +1669,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1612,29 +1680,29 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1645,7 +1713,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1655,14 +1723,25 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
-        <f>SUM(C3:C18)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <f>SUM(D3:D18)</f>
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
+        <f>SUM(C3:C19)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <f>SUM(D3:D19)</f>
         <v>40</v>
       </c>
     </row>

--- a/teacher/assessment.xlsx
+++ b/teacher/assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h02680\Documents\software-development-project-1\teacher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEC52B9-F0FF-4BCB-90A0-1DC56692F8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A168480F-42B3-41F0-B184-0BE99FE4BEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{F3B1C888-A306-445B-925E-DC4F729ADDF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>Team name</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>Total exercise points</t>
+  </si>
+  <si>
+    <t>Retrospectives</t>
+  </si>
+  <si>
+    <t>Sprint reviews</t>
+  </si>
+  <si>
+    <t>Documentation has license</t>
   </si>
 </sst>
 </file>
@@ -638,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD00F18-EB42-44D3-A3B4-748FE1A722BA}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="B11" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -1510,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2225FF66-A0D7-41EE-81D9-EFEBD5AB9F52}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1554,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1592,7 +1601,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1603,29 +1612,29 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1636,7 +1645,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1647,7 +1656,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1658,18 +1667,18 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1680,68 +1689,101 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>63</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3">
-        <f>SUM(C3:C19)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <f>SUM(D3:D19)</f>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
+        <f>SUM(C3:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <f>SUM(D3:D22)</f>
         <v>40</v>
       </c>
     </row>
